--- a/output/17stycznia/2018/sheets/year_2018.xlsx
+++ b/output/17stycznia/2018/sheets/year_2018.xlsx
@@ -481,159 +481,135 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>31.97741935483871</v>
+        <v>47.95341008721422</v>
       </c>
       <c r="C2" t="n">
-        <v>32.48387096774194</v>
+        <v>46.04910993380615</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>33.66071428571429</v>
+        <v>43.63947722438841</v>
       </c>
       <c r="C3" t="n">
-        <v>28.36785714285714</v>
+        <v>45.05220301193376</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>37.61612903225805</v>
+        <v>44.5784559115604</v>
       </c>
       <c r="C4" t="n">
-        <v>36.00322580645161</v>
+        <v>45.41370042827219</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>41.20666666666667</v>
+        <v>46.4376241178928</v>
       </c>
       <c r="C5" t="n">
-        <v>41.30333333333335</v>
+        <v>48.03160573286605</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>05</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>31.66129032258064</v>
+        <v>41.99044591852494</v>
       </c>
       <c r="C6" t="n">
-        <v>27.50322580645162</v>
+        <v>44.04949749829412</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>06</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>37.3</v>
+        <v>42.86485834007175</v>
       </c>
       <c r="C7" t="n">
-        <v>30.27333333333334</v>
+        <v>42.81172641403686</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>07</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>39.86451612903224</v>
+        <v>45.87240772600968</v>
       </c>
       <c r="C8" t="n">
-        <v>37.81612903225807</v>
+        <v>43.39634295847918</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>08</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>43.66774193548387</v>
+        <v>46.623504605908</v>
       </c>
       <c r="C9" t="n">
-        <v>39.70322580645161</v>
+        <v>47.11697523417988</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
+      <c r="A10" t="n">
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>42.03</v>
+        <v>48.72357024471676</v>
       </c>
       <c r="C10" t="n">
-        <v>43.53333333333333</v>
+        <v>49.31231344893554</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A11" t="n">
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>51.02258064516129</v>
+        <v>52.28783328648247</v>
       </c>
       <c r="C11" t="n">
-        <v>50.48064516129031</v>
+        <v>51.37437122350114</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A12" t="n">
+        <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>43.39666666666666</v>
+        <v>45.80891013155023</v>
       </c>
       <c r="C12" t="n">
-        <v>43.64666666666667</v>
+        <v>46.24512787455138</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A13" t="n">
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>47.96129032258065</v>
+        <v>50.01656377002724</v>
       </c>
       <c r="C13" t="n">
-        <v>47.83548387096774</v>
+        <v>48.97643166822741</v>
       </c>
     </row>
   </sheetData>
